--- a/data/texts/test.xlsx
+++ b/data/texts/test.xlsx
@@ -35,214 +35,215 @@
     <t>英文</t>
   </si>
   <si>
-    <t>我接纳所有的不完美，
-因为它们造就了独一无二的我。</t>
-  </si>
-  <si>
-    <t>心有阳光，
-处处皆是晴天。</t>
-  </si>
-  <si>
-    <t>每一次跌倒，
-都是为了更高地跃起。</t>
-  </si>
-  <si>
-    <t>我允许自己犯错，
-因为成长比完美更重要。</t>
-  </si>
-  <si>
-    <t>不慌不忙，
-自有力量。</t>
+    <t>我拥抱变化，
+因为变化是成长的契机。</t>
+  </si>
+  <si>
+    <t>心静如水，
+方能照见万物。</t>
+  </si>
+  <si>
+    <t>每一次呼吸，
+都是与宇宙的连接。</t>
+  </si>
+  <si>
+    <t>我允许自己慢下来，
+享受生命的节奏。</t>
+  </si>
+  <si>
+    <t>不强求，
+不执着，
+顺其自然。</t>
   </si>
   <si>
     <t>我的人生，
-没有“太晚”，
-只有“现在”。</t>
-  </si>
-  <si>
-    <t>心怀希望，
-永不放弃。</t>
-  </si>
-  <si>
-    <t>我选择善良，
-因为我相信因果。</t>
-  </si>
-  <si>
-    <t>把困难踩在脚下，
-你就是巨人。</t>
-  </si>
-  <si>
-    <t>最好的时机，
-永远是当下。</t>
-  </si>
-  <si>
-    <t>我不与他人比较，
-我只与昨天的自己比较。</t>
-  </si>
-  <si>
-    <t>保持好奇心，
-世界永远充满惊喜。</t>
-  </si>
-  <si>
-    <t>真正的强大，
-是内心的平静。</t>
-  </si>
-  <si>
-    <t>我是一切的根源，
-我能创造我想要的一切。</t>
-  </si>
-  <si>
-    <t>用心感受，
-生活处处是美好。</t>
-  </si>
-  <si>
-    <t>我值得拥有世间一切美好。</t>
+没有“应该”，
+只有“选择”。</t>
+  </si>
+  <si>
+    <t>心怀感恩，
+喜悦自来。</t>
   </si>
   <si>
     <t>我选择相信，
+一切皆有可能。</t>
+  </si>
+  <si>
+    <t>把困难当作垫脚石，
+你会走得更高。</t>
+  </si>
+  <si>
+    <t>最好的礼物，
+是活在当下。</t>
+  </si>
+  <si>
+    <t>我不定义自己，
+我只体验自己。</t>
+  </si>
+  <si>
+    <t>保持觉知，
+感受生命的美好。</t>
+  </si>
+  <si>
+    <t>真正的自由，
+是内心的解放。</t>
+  </si>
+  <si>
+    <t>我是一切的创造者，
+我拥有无限的力量。</t>
+  </si>
+  <si>
+    <t>用心聆听，
+万物皆有灵性。</t>
+  </si>
+  <si>
+    <t>我值得拥有爱与被爱。</t>
+  </si>
+  <si>
+    <t>我选择希望，
+因为希望是前进的动力。</t>
+  </si>
+  <si>
+    <t>勇敢表达自己，
+让世界听到你的声音。</t>
+  </si>
+  <si>
+    <t>我的人生，
+是一场精彩的冒险。</t>
+  </si>
+  <si>
+    <t>心怀慈悲，
+温暖他人，
+也温暖自己。</t>
+  </si>
+  <si>
+    <t>我允许一切发生，
+并从中学习。</t>
+  </si>
+  <si>
+    <t>不比较，
+不评判，
+专注于自己的成长。</t>
+  </si>
+  <si>
+    <t>我拥有无限的智慧，
+等待我去开启。</t>
+  </si>
+  <si>
+    <t>每一次尝试，
+都在创造新的可能。</t>
+  </si>
+  <si>
+    <t>我选择幸福，
+因为幸福是一种能力。</t>
+  </si>
+  <si>
+    <t>我的人生，
+由我书写。</t>
+  </si>
+  <si>
+    <t>保持开放的心灵，
+迎接未知的惊喜。</t>
+  </si>
+  <si>
+    <t>我是一粒尘埃，
+也是一片宇宙。</t>
+  </si>
+  <si>
+    <t>我欣赏自己的不完美，
+因为这是我的独特之处。</t>
+  </si>
+  <si>
+    <t>我用善意，
+回应世界的恶意。</t>
+  </si>
+  <si>
+    <t>真正的成功，
+是内心的满足。</t>
+  </si>
+  <si>
+    <t>我相信，
 一切都会越来越好。</t>
   </si>
   <si>
-    <t>勇敢做自己，
-不必在意他人的眼光。</t>
+    <t>我享受每一个当下，
+因为当下即永恒。</t>
+  </si>
+  <si>
+    <t>我的人生，没有对错，
+只有体验。</t>
+  </si>
+  <si>
+    <t>保持谦卑，
+向万物学习。</t>
+  </si>
+  <si>
+    <t>我用积极的能量，
+影响周围的世界。</t>
+  </si>
+  <si>
+    <t>我是一盏明灯，
+照亮自己，
+也指引他人。</t>
+  </si>
+  <si>
+    <t>我的人生，
+没有边界，
+只有无限的延伸。</t>
+  </si>
+  <si>
+    <t>我选择相信，
+爱是永恒的力量。</t>
+  </si>
+  <si>
+    <t>我用行动，
+践行自己的信念。</t>
+  </si>
+  <si>
+    <t>我感恩每一次呼吸，
+感谢生命的存在。</t>
+  </si>
+  <si>
+    <t>我的人生，
+没有后悔，
+只有成长。</t>
+  </si>
+  <si>
+    <t>保持微笑，
+世界会向你微笑。</t>
+  </si>
+  <si>
+    <t>我是一座山，
+坚定不移，
+屹立不倒。</t>
+  </si>
+  <si>
+    <t>我用温柔，
+对待每一个生命。</t>
   </si>
   <si>
     <t>我的人生，
 没有终点，
-只有不断向前的旅程。</t>
-  </si>
-  <si>
-    <t>心怀感恩，
-幸福自来。</t>
-  </si>
-  <si>
-    <t>我允许一切如其所是。</t>
-  </si>
-  <si>
-    <t>不纠结过去，
-不忧虑未来，
-活在当下。</t>
-  </si>
-  <si>
-    <t>我拥有无限的潜能，
-等待我去发掘。</t>
-  </si>
-  <si>
-    <t>每一次努力，
-都在悄悄地改变命运。</t>
-  </si>
-  <si>
-    <t>我选择快乐，
-因为这是我应得的。</t>
-  </si>
-  <si>
-    <t>我的人生，
-由我掌控。</t>
-  </si>
-  <si>
-    <t>保持开放的心态，
-迎接一切可能性。</t>
-  </si>
-  <si>
-    <t>我是一颗种子，
-正在破土而出。</t>
-  </si>
-  <si>
-    <t>我欣赏自己的独特，
-因为这是我的闪光点。</t>
-  </si>
-  <si>
-    <t>我用爱和善意，
-对待这个世界。</t>
-  </si>
-  <si>
-    <t>真正的富有，
-是内心的丰盈。</t>
+只有无限的循环。</t>
   </si>
   <si>
     <t>我相信，
 一切都是最好的安排。</t>
   </si>
   <si>
-    <t>我享受过程，
-胜过追求结果。</t>
+    <t>我用爱，
+连接万物，
+感受一体。</t>
   </si>
   <si>
     <t>我的人生，
-没有失败，
-只有学习。</t>
-  </si>
-  <si>
-    <t>保持耐心，
-时间会证明一切。</t>
-  </si>
-  <si>
-    <t>我用积极的态度，
-面对生活的挑战。</t>
-  </si>
-  <si>
-    <t>我是一束光，
-照亮自己，
-也温暖他人。</t>
-  </si>
-  <si>
-    <t>我的人生，
-没有限制，
-只有无限的可能。</t>
-  </si>
-  <si>
-    <t>我选择相信，
-奇迹会发生。</t>
-  </si>
-  <si>
-    <t>我用行动，
-创造属于自己的精彩。</t>
-  </si>
-  <si>
-    <t>我感恩每一次相遇，
-珍惜每一份缘分。</t>
-  </si>
-  <si>
-    <t>我的人生，
-没有遗憾，
-只有经历。</t>
-  </si>
-  <si>
-    <t>保持乐观，
-好运常伴。</t>
-  </si>
-  <si>
-    <t>我是一棵树，
-扎根大地，
-向阳生长。</t>
-  </si>
-  <si>
-    <t>我用微笑，
-面对生活的起起落落。</t>
-  </si>
-  <si>
-    <t>我的人生，
-没有终点，
-只有新的起点。</t>
-  </si>
-  <si>
-    <t>我相信，
-一切都会水到渠成。</t>
-  </si>
-  <si>
-    <t>我用爱，
-治愈自己，
-也温暖世界。</t>
-  </si>
-  <si>
-    <t>我的人生，
-没有白走的路，
-每一步都算数。</t>
+没有浪费，
+只有积累。</t>
   </si>
   <si>
     <t>我选择勇敢，
 因为我知道，
-我能行！</t>
+我能创造奇迹！</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1243,8 @@
   <sheetPr/>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1279,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="36" spans="1:1">
+    <row r="6" ht="53" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1349,17 +1350,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" ht="53" spans="1:1">
+    <row r="20" ht="36" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" ht="36" spans="1:1">
+    <row r="21" ht="53" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="1:1">
+    <row r="22" ht="36" spans="1:1">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" ht="53" spans="1:1">
+    <row r="35" ht="36" spans="1:1">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
